--- a/石田関係/クモ仕様書(β用12月01日).xlsx
+++ b/石田関係/クモ仕様書(β用12月01日).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="9" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="UI" sheetId="12" r:id="rId18"/>
     <sheet name="操作説明" sheetId="14" r:id="rId19"/>
     <sheet name="AI" sheetId="21" r:id="rId20"/>
-    <sheet name="リザルト" sheetId="22" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="40" r:id="rId21"/>
+    <sheet name="リザルト" sheetId="39" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="323">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2757,32 +2758,6 @@
   </si>
   <si>
     <t>プレイヤーへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了時、ゲーム画面を止めて、1秒間かけて薄暗くする</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ウスグラ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6310,30 +6285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">一番最初
-一番近くの木に近づいてジャンプ
-</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>基本行動は一番左と同じ
 着地後の停止時間を0.5秒に
@@ -7028,23 +6979,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>幹より上の枝部分に
-プレイヤーがいるとき</t>
-    <rPh sb="0" eb="1">
-      <t>ミキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>着地した地点が地面または地面から50cm未満の場合は、跳ぶ木を選択したら42度上に向けてジャンプする(巣は貼らないようにする)</t>
     <rPh sb="0" eb="2">
       <t>チャクチ</t>
@@ -7441,6 +7375,1358 @@
   </si>
   <si>
     <t>　ボーナス：糸の上限が増える、またはかかった糸が消えなくなる　＋50ポイント　</t>
+  </si>
+  <si>
+    <t>　　リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面挙動</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームプレイ画面でタイムが0にった場合ゲーム画面を2秒でフィードアウトし遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背景ではゲーム終了時のステージの状態を保存しタイトル画面と同じように表示する　カメラはタイトルと同じ挙動をする</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上記画像の円の部分に糸の長さ、糸の本数、陣地木の数をプレイヤーエネミー共に表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・表示するスピードは糸の長さから1.5秒ごとに表示していく</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・何かボタンが押された場合は即表示する</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スコアを表示する1.5秒の間スコアを表示する部分の数字はランダムな数字を連続で切り替え表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーは左側、エネミーは右側に表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上記画像の円の部分に陣地木の数が表示後3秒後に合計スコアをプレイヤー、エネミー共に表示</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・合計スコアが表示されるまでの3秒間はランダムな数値を連続で切り替え表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・合計スコア表示2秒後に上記円の場所にwin,loseを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・合計スコアが多いほうにwinと表示し少ないほうにloseと表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・win,lose表示と同時に上記の円の場所に勝った方のキャラクターモデルを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラクターモデルは1分で一周する速度で右周りに回転させる</t>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラクターモデルが表示されてから5秒もしくは何かボタンが押された時プレイヤーがゲーム勝利していた場合ステージ選択、リトライ、ゲーム終了を表示されているキャラクターの上に表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラクターモデルが表示されてから5秒もしくは何かボタンが押された時プレイヤーがゲームに敗北していた場合リトライ、ステージ選択、ゲーム終了を表示されているキャラクターの上に表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアは自分の貼った糸の長さ、糸の本数、陣地木の数　の合計ポイントになる</t>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸の貼った合計の長さ(1mにつき10ポイント)+糸の本数(糸の数1本につき30ポイント )+陣地木の数(1本につき100ポイント)+ボーナススコア食べた蝶の数×50ポイント =陣地のスコア</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面にいるとき</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近くの木を選択しその木に向かって移動
+ジャンプ範囲内の正面からY軸に45度の範囲内に木が入ったら直前に1秒止まってジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近くの木を選択しその木に向かって移動
+ジャンプ範囲内の正面からY軸に45度の範囲内に木が入ったら止まらずにジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近くの木を選択しその木に向かって移動
+ジャンプ範囲内の正面からY軸に45度の範囲内に木が入ったら直前に2秒止まってジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面から一番近い木に向かう</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斜め45度でジャンプできる範囲まで移動したら1秒間だけ止まってジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地→そこで最初の陣地木</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に一番近くの白い木を選んで跳ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時まだ低いから可能な限り上を向いてジャンプ</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地→それなりの高さの地点にいる</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白い木がなくなるまで繰り返し</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4対4</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番近くの青い木に向かってジャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ全体を見て、赤い木と糸が多い方面から一番近くの青い木を選択してジャンプ</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以後優勢か劣勢まで続ける</t>
+    <rPh sb="0" eb="2">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優勢の時</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劣勢の時</t>
+    <rPh sb="0" eb="2">
+      <t>レッセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くのジャンプできる木に赤い木があった場合、そちらを優先して跳ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択のできる赤い木が複数あった場合、その糸に貼られている赤い糸が差2本以下の木を優先して跳ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い糸と赤い糸の本数差も同じだった場合は、ランダムで木を選択</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先時に糸を出すときは、巣を貼りやすい角度を多めに</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の画像をだして高さで跳ぶ条件を作る</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先時になってから3回ほど赤い木にとんだ場合、木全体を選択し、その中で最も赤い糸の本数差が少ない木を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番近くで自分のいる高さより低い位置の赤い糸を選択</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その上に乗り、選択した木にスプリングジャンプ</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしスプリングジャンプで届かない距離の場合、その近くの木または赤い糸で最も遠いとこを選択しそこへスプリングジャンプ</t>
+    <rPh sb="12" eb="13">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面に落ちたら上から条件をリセット</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地後その最初に選択した木を向かってジャンプする</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優勢時になって3回ほど赤い木に跳んだら、木全体を選択してっその中で赤い木で糸の本数差が一番小さい木を</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イチキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7616,7 +8902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -7745,12 +9031,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7835,6 +9132,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -17844,6 +19147,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1171575"/>
+          <a:ext cx="5619750" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20856</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="5172075"/>
+          <a:ext cx="3211731" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="8010525"/>
+          <a:ext cx="3228975" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="10629900"/>
+          <a:ext cx="3248025" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695324" y="13201650"/>
+          <a:ext cx="3267075" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -24527,10 +26055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24611,10 +26139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24679,12 +26207,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -24717,69 +26245,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="41"/>
+      <c r="A1" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -24810,10 +26338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -24837,140 +26365,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25001,85 +26529,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="41"/>
+      <c r="A1" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -25106,64 +26634,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="42"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -25183,7 +26711,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -25193,54 +26721,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -25270,11 +26798,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25286,22 +26814,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
@@ -25310,28 +26838,28 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -25355,8 +26883,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25365,10 +26893,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25489,10 +27017,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -25620,17 +27148,17 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C61" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -25667,8 +27195,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25698,72 +27226,72 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13"/>
       <c r="B11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -25774,7 +27302,7 @@
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -25782,35 +27310,33 @@
     </row>
     <row r="16" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="24"/>
+        <v>247</v>
+      </c>
+      <c r="C17" s="40"/>
       <c r="D17" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="14"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="28"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
     </row>
@@ -25822,69 +27348,82 @@
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.45">
-      <c r="B28" s="37" t="s">
-        <v>235</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -25895,13 +27434,159 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+      <c r="O21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25909,23 +27594,153 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="41"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>137</v>
+    <row r="1" spans="1:2" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B68" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25946,10 +27761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="39"/>
+      <c r="A1" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -25981,10 +27796,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -25993,57 +27808,57 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -26071,10 +27886,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26083,47 +27898,47 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -26162,43 +27977,43 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -26225,7 +28040,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -26251,10 +28066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -26477,10 +28292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
